--- a/tutorials/simulation_models/multicluster_test_scenario.xlsx
+++ b/tutorials/simulation_models/multicluster_test_scenario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fleet" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -258,7 +258,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1249,8 +1248,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>0.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,146 +1411,9 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>0.95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2">
@@ -1433,7 +1430,7 @@
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3">
@@ -1450,7 +1447,7 @@
       <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4">
@@ -1467,7 +1464,7 @@
       <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5">
@@ -1484,7 +1481,7 @@
       <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6">
@@ -1501,7 +1498,7 @@
       <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7">
@@ -1537,10 +1534,10 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1830,10 +1827,10 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>37</v>
       </c>
     </row>
